--- a/report_zone/Report_zone7.xlsx
+++ b/report_zone/Report_zone7.xlsx
@@ -2409,7 +2409,7 @@
       </c>
       <c r="HF2" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="HF3" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="HF4" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="HF5" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -6041,7 +6041,7 @@
       </c>
       <c r="HF6" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -6953,7 +6953,7 @@
       </c>
       <c r="HF7" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -7873,7 +7873,7 @@
       </c>
       <c r="HF8" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -8785,7 +8785,7 @@
       </c>
       <c r="HF9" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -9693,7 +9693,7 @@
       </c>
       <c r="HF10" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="HF11" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -11509,7 +11509,7 @@
       </c>
       <c r="HF12" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -12219,7 +12219,7 @@
       </c>
       <c r="FL13" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FM13" t="inlineStr">
@@ -12417,7 +12417,7 @@
       </c>
       <c r="HF13" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -13333,7 +13333,7 @@
       </c>
       <c r="HF14" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -14245,7 +14245,7 @@
       </c>
       <c r="HF15" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -15153,7 +15153,7 @@
       </c>
       <c r="HF16" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -16061,7 +16061,7 @@
       </c>
       <c r="HF17" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -16969,7 +16969,7 @@
       </c>
       <c r="HF18" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -17877,7 +17877,7 @@
       </c>
       <c r="HF19" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -18785,7 +18785,7 @@
       </c>
       <c r="HF20" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -19693,7 +19693,7 @@
       </c>
       <c r="HF21" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -20601,7 +20601,7 @@
       </c>
       <c r="HF22" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -21509,7 +21509,7 @@
       </c>
       <c r="HF23" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -22417,7 +22417,7 @@
       </c>
       <c r="HF24" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -23329,7 +23329,7 @@
       </c>
       <c r="HF25" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -24237,7 +24237,7 @@
       </c>
       <c r="HF26" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -25145,7 +25145,7 @@
       </c>
       <c r="HF27" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -26061,7 +26061,7 @@
       </c>
       <c r="HF28" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -26969,7 +26969,7 @@
       </c>
       <c r="HF29" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -27877,7 +27877,7 @@
       </c>
       <c r="HF30" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -28797,7 +28797,7 @@
       </c>
       <c r="HF31" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -29705,7 +29705,7 @@
       </c>
       <c r="HF32" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -30613,7 +30613,7 @@
       </c>
       <c r="HF33" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -31505,7 +31505,7 @@
       </c>
       <c r="HF34" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -32413,7 +32413,7 @@
       </c>
       <c r="HF35" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -33285,7 +33285,7 @@
       </c>
       <c r="HF36" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -34193,7 +34193,7 @@
       </c>
       <c r="HF37" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -35113,7 +35113,7 @@
       </c>
       <c r="HF38" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -36021,7 +36021,7 @@
       </c>
       <c r="HF39" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -36929,7 +36929,7 @@
       </c>
       <c r="HF40" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -37841,7 +37841,7 @@
       </c>
       <c r="HF41" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -38749,7 +38749,7 @@
       </c>
       <c r="HF42" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -39657,7 +39657,7 @@
       </c>
       <c r="HF43" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -40565,7 +40565,7 @@
       </c>
       <c r="HF44" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -41473,7 +41473,7 @@
       </c>
       <c r="HF45" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -42389,7 +42389,7 @@
       </c>
       <c r="HF46" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -43297,7 +43297,7 @@
       </c>
       <c r="HF47" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -44205,7 +44205,7 @@
       </c>
       <c r="HF48" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -45113,7 +45113,7 @@
       </c>
       <c r="HF49" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -46021,7 +46021,7 @@
       </c>
       <c r="HF50" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -46937,7 +46937,7 @@
       </c>
       <c r="HF51" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -47845,7 +47845,7 @@
       </c>
       <c r="HF52" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -48753,7 +48753,7 @@
       </c>
       <c r="HF53" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -49661,7 +49661,7 @@
       </c>
       <c r="HF54" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -50577,7 +50577,7 @@
       </c>
       <c r="HF55" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -51489,7 +51489,7 @@
       </c>
       <c r="HF56" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -52397,7 +52397,7 @@
       </c>
       <c r="HF57" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -53305,7 +53305,7 @@
       </c>
       <c r="HF58" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -54213,7 +54213,7 @@
       </c>
       <c r="HF59" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -55121,7 +55121,7 @@
       </c>
       <c r="HF60" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -56029,7 +56029,7 @@
       </c>
       <c r="HF61" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -56937,7 +56937,7 @@
       </c>
       <c r="HF62" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -57853,7 +57853,7 @@
       </c>
       <c r="HF63" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -58765,7 +58765,7 @@
       </c>
       <c r="HF64" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -59673,7 +59673,7 @@
       </c>
       <c r="HF65" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -60585,7 +60585,7 @@
       </c>
       <c r="HF66" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -61501,7 +61501,7 @@
       </c>
       <c r="HF67" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -62409,7 +62409,7 @@
       </c>
       <c r="HF68" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -63325,7 +63325,7 @@
       </c>
       <c r="HF69" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -64233,7 +64233,7 @@
       </c>
       <c r="HF70" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -65141,7 +65141,7 @@
       </c>
       <c r="HF71" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -66049,7 +66049,7 @@
       </c>
       <c r="HF72" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -66961,7 +66961,7 @@
       </c>
       <c r="HF73" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -67869,7 +67869,7 @@
       </c>
       <c r="HF74" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -68777,7 +68777,7 @@
       </c>
       <c r="HF75" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -69693,7 +69693,7 @@
       </c>
       <c r="HF76" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -70613,7 +70613,7 @@
       </c>
       <c r="HF77" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
@@ -71521,7 +71521,7 @@
       </c>
       <c r="HF78" t="inlineStr">
         <is>
-          <t>2025-05-19 05:48:04</t>
+          <t>2025-05-19 19:48:09</t>
         </is>
       </c>
     </row>
